--- a/NBAStadiumSizev1.xlsx
+++ b/NBAStadiumSizev1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hannah/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hannah/Desktop/OriginalData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4D69B9-94AA-694B-9C49-136F57917826}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CFBF50-09C8-3740-BC62-7D29477708E2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14500" xr2:uid="{B6421B2F-1541-FC49-922A-A1F6BD2BA29D}"/>
+    <workbookView xWindow="520" yWindow="460" windowWidth="25040" windowHeight="14500" xr2:uid="{B6421B2F-1541-FC49-922A-A1F6BD2BA29D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="134">
   <si>
     <t>TeamAbr</t>
   </si>
@@ -336,9 +336,6 @@
     <t>Philadelphia 76ers</t>
   </si>
   <si>
-    <t>Philidelphia</t>
-  </si>
-  <si>
     <t>Wells Fargo Center</t>
   </si>
   <si>
@@ -429,25 +426,7 @@
     <t>Capital One Arena</t>
   </si>
   <si>
-    <t>https://geojango.com/pages/list-of-nba-teams</t>
-  </si>
-  <si>
-    <t>https://www.nba.com/article/2018/08/29/atlanta-hawks-and-state-farm-reach-agreement-rename-arena</t>
-  </si>
-  <si>
-    <t>https://www.cleveland.com/news/2019/09/33-by-the-numbers-facts-about-rocket-mortgage-fieldhouse.html</t>
-  </si>
-  <si>
-    <t>https://www.nba.com/pistons/history/thepalaceofauburnhills.html</t>
-  </si>
-  <si>
-    <t>https://www.nba.com/article/2019/10/02/golden-state-warriors-new-chase-center-features-photos-tour</t>
-  </si>
-  <si>
-    <t>https://www.nba.com/kings/blog/farewell-sleep-train-arena</t>
-  </si>
-  <si>
-    <t>https://247sports.com/college/marquette/Article/Bradley-Center-vs-New-Wisconsin-Sports-and-Entertainment-Center-115757653/</t>
+    <t>Philadelphia</t>
   </si>
 </sst>
 </file>
@@ -810,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29463FEE-9871-DC45-9868-8149B7360C4D}">
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J116" sqref="J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3052,13 +3031,13 @@
         <v>102</v>
       </c>
       <c r="C112" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="D112" t="s">
         <v>9</v>
       </c>
       <c r="E112" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F112">
         <v>20478</v>
@@ -3072,13 +3051,13 @@
         <v>102</v>
       </c>
       <c r="C113" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="D113" t="s">
         <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F113">
         <v>20478</v>
@@ -3092,13 +3071,13 @@
         <v>102</v>
       </c>
       <c r="C114" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="D114" t="s">
         <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F114">
         <v>20478</v>
@@ -3112,13 +3091,13 @@
         <v>102</v>
       </c>
       <c r="C115" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="D115" t="s">
         <v>14</v>
       </c>
       <c r="E115" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F115">
         <v>20478</v>
@@ -3132,13 +3111,13 @@
         <v>102</v>
       </c>
       <c r="C116" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="D116" t="s">
         <v>15</v>
       </c>
       <c r="E116" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F116">
         <v>20478</v>
@@ -3146,19 +3125,19 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B117" t="s">
         <v>105</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>106</v>
-      </c>
-      <c r="C117" t="s">
-        <v>107</v>
       </c>
       <c r="D117" t="s">
         <v>9</v>
       </c>
       <c r="E117" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F117">
         <v>18055</v>
@@ -3166,19 +3145,19 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B118" t="s">
         <v>105</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>106</v>
-      </c>
-      <c r="C118" t="s">
-        <v>107</v>
       </c>
       <c r="D118" t="s">
         <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F118">
         <v>18055</v>
@@ -3186,19 +3165,19 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B119" t="s">
         <v>105</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>106</v>
-      </c>
-      <c r="C119" t="s">
-        <v>107</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F119">
         <v>18055</v>
@@ -3206,19 +3185,19 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B120" t="s">
         <v>105</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>106</v>
-      </c>
-      <c r="C120" t="s">
-        <v>107</v>
       </c>
       <c r="D120" t="s">
         <v>14</v>
       </c>
       <c r="E120" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F120">
         <v>18055</v>
@@ -3226,19 +3205,19 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B121" t="s">
         <v>105</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>106</v>
-      </c>
-      <c r="C121" t="s">
-        <v>107</v>
       </c>
       <c r="D121" t="s">
         <v>15</v>
       </c>
       <c r="E121" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F121">
         <v>18055</v>
@@ -3246,19 +3225,19 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B122" t="s">
         <v>109</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>110</v>
-      </c>
-      <c r="C122" t="s">
-        <v>111</v>
       </c>
       <c r="D122" t="s">
         <v>9</v>
       </c>
       <c r="E122" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F122">
         <v>19441</v>
@@ -3266,19 +3245,19 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B123" t="s">
         <v>109</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>110</v>
-      </c>
-      <c r="C123" t="s">
-        <v>111</v>
       </c>
       <c r="D123" t="s">
         <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F123">
         <v>19441</v>
@@ -3286,19 +3265,19 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B124" t="s">
         <v>109</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>110</v>
-      </c>
-      <c r="C124" t="s">
-        <v>111</v>
       </c>
       <c r="D124" t="s">
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F124">
         <v>19441</v>
@@ -3306,19 +3285,19 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B125" t="s">
         <v>109</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>110</v>
-      </c>
-      <c r="C125" t="s">
-        <v>111</v>
       </c>
       <c r="D125" t="s">
         <v>14</v>
       </c>
       <c r="E125" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F125">
         <v>19441</v>
@@ -3326,19 +3305,19 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B126" t="s">
         <v>109</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>110</v>
-      </c>
-      <c r="C126" t="s">
-        <v>111</v>
       </c>
       <c r="D126" t="s">
         <v>15</v>
       </c>
       <c r="E126" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F126">
         <v>19441</v>
@@ -3346,19 +3325,19 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B127" t="s">
         <v>113</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>114</v>
-      </c>
-      <c r="C127" t="s">
-        <v>115</v>
       </c>
       <c r="D127" t="s">
         <v>9</v>
       </c>
       <c r="E127" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F127">
         <v>18418</v>
@@ -3366,19 +3345,19 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B128" t="s">
         <v>113</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>114</v>
-      </c>
-      <c r="C128" t="s">
-        <v>115</v>
       </c>
       <c r="D128" t="s">
         <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F128">
         <v>18418</v>
@@ -3386,19 +3365,19 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B129" t="s">
         <v>113</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>114</v>
-      </c>
-      <c r="C129" t="s">
-        <v>115</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F129">
         <v>18418</v>
@@ -3406,19 +3385,19 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B130" t="s">
         <v>113</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>114</v>
-      </c>
-      <c r="C130" t="s">
-        <v>115</v>
       </c>
       <c r="D130" t="s">
         <v>14</v>
       </c>
       <c r="E130" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F130">
         <v>18418</v>
@@ -3426,19 +3405,19 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B131" t="s">
         <v>113</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>114</v>
-      </c>
-      <c r="C131" t="s">
-        <v>115</v>
       </c>
       <c r="D131" t="s">
         <v>15</v>
       </c>
       <c r="E131" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F131">
         <v>18418</v>
@@ -3446,19 +3425,19 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B132" t="s">
         <v>117</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>118</v>
-      </c>
-      <c r="C132" t="s">
-        <v>119</v>
       </c>
       <c r="D132" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F132" s="4">
         <v>17317</v>
@@ -3466,19 +3445,19 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B133" t="s">
         <v>117</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>118</v>
-      </c>
-      <c r="C133" t="s">
-        <v>119</v>
       </c>
       <c r="D133" t="s">
         <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F133">
         <v>17583</v>
@@ -3486,19 +3465,19 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B134" t="s">
         <v>117</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>118</v>
-      </c>
-      <c r="C134" t="s">
-        <v>119</v>
       </c>
       <c r="D134" t="s">
         <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F134">
         <v>17583</v>
@@ -3506,19 +3485,19 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B135" t="s">
         <v>117</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>118</v>
-      </c>
-      <c r="C135" t="s">
-        <v>119</v>
       </c>
       <c r="D135" t="s">
         <v>14</v>
       </c>
       <c r="E135" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F135">
         <v>17583</v>
@@ -3526,19 +3505,19 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B136" t="s">
         <v>117</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>118</v>
-      </c>
-      <c r="C136" t="s">
-        <v>119</v>
       </c>
       <c r="D136" t="s">
         <v>15</v>
       </c>
       <c r="E136" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F136">
         <v>17583</v>
@@ -3546,19 +3525,19 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B137" t="s">
         <v>122</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>123</v>
-      </c>
-      <c r="C137" t="s">
-        <v>124</v>
       </c>
       <c r="D137" t="s">
         <v>9</v>
       </c>
       <c r="E137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F137">
         <v>19800</v>
@@ -3566,19 +3545,19 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B138" t="s">
         <v>122</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>123</v>
-      </c>
-      <c r="C138" t="s">
-        <v>124</v>
       </c>
       <c r="D138" t="s">
         <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F138">
         <v>19800</v>
@@ -3586,19 +3565,19 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B139" t="s">
         <v>122</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>123</v>
-      </c>
-      <c r="C139" t="s">
-        <v>124</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
       </c>
       <c r="E139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F139">
         <v>19800</v>
@@ -3606,19 +3585,19 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B140" t="s">
         <v>122</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>123</v>
-      </c>
-      <c r="C140" t="s">
-        <v>124</v>
       </c>
       <c r="D140" t="s">
         <v>14</v>
       </c>
       <c r="E140" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F140">
         <v>19800</v>
@@ -3626,19 +3605,19 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B141" t="s">
         <v>122</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>123</v>
-      </c>
-      <c r="C141" t="s">
-        <v>124</v>
       </c>
       <c r="D141" t="s">
         <v>15</v>
       </c>
       <c r="E141" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F141">
         <v>19800</v>
@@ -3646,19 +3625,19 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B142" t="s">
         <v>126</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D142" t="s">
         <v>9</v>
       </c>
       <c r="E142" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F142">
         <v>18306</v>
@@ -3666,19 +3645,19 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B143" t="s">
         <v>126</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D143" t="s">
         <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F143">
         <v>18306</v>
@@ -3686,19 +3665,19 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B144" t="s">
         <v>126</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D144" t="s">
         <v>12</v>
       </c>
       <c r="E144" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F144">
         <v>18306</v>
@@ -3706,19 +3685,19 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B145" t="s">
         <v>126</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D145" t="s">
         <v>14</v>
       </c>
       <c r="E145" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F145">
         <v>18306</v>
@@ -3726,19 +3705,19 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B146" t="s">
         <v>126</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D146" t="s">
         <v>15</v>
       </c>
       <c r="E146" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F146">
         <v>18306</v>
@@ -3746,19 +3725,19 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B147" t="s">
         <v>130</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D147" t="s">
         <v>9</v>
       </c>
       <c r="E147" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F147">
         <v>20356</v>
@@ -3766,19 +3745,19 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B148" t="s">
         <v>130</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D148" t="s">
         <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F148">
         <v>20356</v>
@@ -3786,19 +3765,19 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B149" t="s">
         <v>130</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
       </c>
       <c r="E149" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F149">
         <v>20356</v>
@@ -3806,19 +3785,19 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B150" t="s">
         <v>130</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D150" t="s">
         <v>14</v>
       </c>
       <c r="E150" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F150">
         <v>20356</v>
@@ -3826,60 +3805,26 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B151" t="s">
         <v>130</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D151" t="s">
         <v>15</v>
       </c>
       <c r="E151" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F151">
         <v>20356</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
-      <c r="A159" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>140</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>